--- a/src/test/java/TestData/BasicTestsData/BoostrapAlertsData.xlsx
+++ b/src/test/java/TestData/BasicTestsData/BoostrapAlertsData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateusz\SeleniumEasyFramework_Project\src\test\java\TestData\BasicTestsData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3DACEF-F866-4761-8335-FFE4BB287A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140A35DB-F877-4109-A7CF-79C6E6760C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="968" activeTab="7" xr2:uid="{FF59E510-D809-4813-BD17-13BA492399B7}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="21645" windowHeight="11385" tabRatio="968" activeTab="1" xr2:uid="{FF59E510-D809-4813-BD17-13BA492399B7}"/>
   </bookViews>
   <sheets>
     <sheet name="boostrapAlertAutoSuccess" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>expected</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>I'm an autocloseable warning message. I will hide in 3 seconds.</t>
+  </si>
+  <si>
+    <t>Faile for Raport Purpoose</t>
   </si>
 </sst>
 </file>
@@ -457,10 +460,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A85E9D42-7887-4B32-96C6-C2208B022105}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,6 +481,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -627,7 +635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1A1808-8C47-41D6-9DFA-2A26E01E3653}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
